--- a/src/observations/table.xlsx
+++ b/src/observations/table.xlsx
@@ -8,52 +8,94 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chess\Desktop\6th Sem\Computational Physics\Project\src\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D8A28-866D-410A-8013-A889426C8DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B3943F-0A7C-43E1-8E2A-0AFDF9B16B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Rainfall</t>
   </si>
   <si>
-    <t>immediacy</t>
-  </si>
-  <si>
-    <t>r_influence</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
     <t>r^2</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Trend: higher rainfall -&gt; lower power cluster exponent</t>
+    <t>number of clusters</t>
+  </si>
+  <si>
+    <t>SD of cluster size</t>
+  </si>
+  <si>
+    <t>average cluster size</t>
+  </si>
+  <si>
+    <t>Every data point here has been averaged over 5 simulations</t>
+  </si>
+  <si>
+    <t>Power law clustering</t>
+  </si>
+  <si>
+    <t>Cluster statistics</t>
+  </si>
+  <si>
+    <t>Radius of influence</t>
+  </si>
+  <si>
+    <t>Rainfall = 400</t>
+  </si>
+  <si>
+    <t>r = 5</t>
+  </si>
+  <si>
+    <t>k = 24</t>
+  </si>
+  <si>
+    <t>Rainfall - 400</t>
+  </si>
+  <si>
+    <t>Immediacy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,9 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,145 +409,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="55.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.98</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>10442.200000000001</v>
+      </c>
+      <c r="J7">
+        <v>8.17</v>
+      </c>
+      <c r="K7">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.97</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>16121.8</v>
+      </c>
+      <c r="J8">
+        <v>6.67</v>
+      </c>
+      <c r="K8">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>1.74</v>
+      </c>
+      <c r="D9">
+        <v>0.96</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <v>18491.2</v>
+      </c>
+      <c r="J9">
+        <v>6.72</v>
+      </c>
+      <c r="K9">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>17965.400000000001</v>
+      </c>
+      <c r="J10">
+        <v>7.76</v>
+      </c>
+      <c r="K10">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>700</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H11">
+        <v>700</v>
+      </c>
+      <c r="I11">
+        <v>15267</v>
+      </c>
+      <c r="J11">
+        <v>10.07</v>
+      </c>
+      <c r="K11">
+        <v>48.77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H12">
+        <v>800</v>
+      </c>
+      <c r="I12">
+        <v>11517</v>
+      </c>
+      <c r="J12">
+        <v>14.51</v>
+      </c>
+      <c r="K12">
+        <v>148.13999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1.83</v>
+      </c>
+      <c r="D16">
+        <v>0.93</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>5663.4</v>
+      </c>
+      <c r="J16">
+        <v>18.59</v>
+      </c>
+      <c r="K16">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1.62</v>
+      </c>
+      <c r="D17">
+        <v>0.98</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>14280.4</v>
+      </c>
+      <c r="J17">
+        <v>7.56</v>
+      </c>
+      <c r="K17">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1.98</v>
+      </c>
+      <c r="D18">
+        <v>0.99</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>17571.400000000001</v>
+      </c>
+      <c r="J18">
+        <v>6.18</v>
+      </c>
+      <c r="K18">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2.84</v>
+      </c>
+      <c r="D19">
+        <v>0.97</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>18804</v>
+      </c>
+      <c r="J19">
+        <v>5.79</v>
+      </c>
+      <c r="K19">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2.92</v>
+      </c>
+      <c r="D20">
+        <v>0.98</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>19820.2</v>
+      </c>
+      <c r="J20">
+        <v>5.42</v>
+      </c>
+      <c r="K20">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2.13</v>
+      </c>
+      <c r="D24">
+        <v>0.98</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>16115</v>
+      </c>
+      <c r="J24">
+        <v>6.65</v>
+      </c>
+      <c r="K24">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1.88</v>
+      </c>
+      <c r="D25">
+        <v>0.99</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>16288.8</v>
+      </c>
+      <c r="J25">
+        <v>6.58</v>
+      </c>
+      <c r="K25">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F3">
+      <c r="C26">
+        <v>1.98</v>
+      </c>
+      <c r="D26">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
+      <c r="H26">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1.74</v>
-      </c>
-      <c r="F5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>600</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>700</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>800</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+      <c r="I26">
+        <v>15976.8</v>
+      </c>
+      <c r="J26">
+        <v>6.79</v>
+      </c>
+      <c r="K26">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>1.78</v>
+      </c>
+      <c r="D27">
+        <v>0.98</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>16227.2</v>
+      </c>
+      <c r="J27">
+        <v>6.61</v>
+      </c>
+      <c r="K27">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>1.92</v>
+      </c>
+      <c r="D28">
+        <v>0.98</v>
+      </c>
+      <c r="H28">
+        <v>36</v>
+      </c>
+      <c r="I28">
+        <v>16055.6</v>
+      </c>
+      <c r="J28">
+        <v>6.73</v>
+      </c>
+      <c r="K28">
+        <v>7.15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/observations/table.xlsx
+++ b/src/observations/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chess\Desktop\6th Sem\Computational Physics\Project\src\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B3943F-0A7C-43E1-8E2A-0AFDF9B16B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6189FD80-2CB2-4B7B-9006-2DAE978FF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
